--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,55 +458,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>varistor</t>
+          <t>tv</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>componente eletrônico</t>
+          <t>eletrônico</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lapis</t>
+          <t>carregador</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>item de escola</t>
+          <t>eletrônico</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cola</t>
+          <t>varistor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>item de escola</t>
+          <t>componente eletrônico</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,151 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cola</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>caneta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>varistor</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>componente eletrônico</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cola</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>caneta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/855f99fd9a2ca2ca/Área de Trabalho/PPO - UFMG/TrabalhoFinal/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2BB1D69C5BF05A1AFBF8261159EF48354CEBFC11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58EB58E2-CEED-462F-9ECF-E654611B1FFA}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>eletrônico</t>
+  </si>
+  <si>
+    <t>carregador</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +78,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,256 +403,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>tv</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>eletrônico</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>carregador</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>eletrônico</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>varistor</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>componente eletrônico</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>lapis</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>item de escola</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>cola</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>50</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>item de escola</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>lapis</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>item de escola</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>caneta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>80</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>item de escola</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>varistor</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>componente eletrônico</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>lapis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>item de escola</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cola</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>50</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>item de escola</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>lapis</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>item de escola</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>caneta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>80</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>item de escola</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3.9</v>
-      </c>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -1,69 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/855f99fd9a2ca2ca/Área de Trabalho/PPO - UFMG/TrabalhoFinal/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2BB1D69C5BF05A1AFBF8261159EF48354CEBFC11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58EB58E2-CEED-462F-9ECF-E654611B1FFA}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>eletrônico</t>
-  </si>
-  <si>
-    <t>carregador</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,59 +420,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tv</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>eletrônico</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>carregador</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>eletrônico</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>varistor</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>componente eletrônico</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cola</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>caneta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>varistor</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>componente eletrônico</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cola</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>caneta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>varistor</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>componente eletrônico</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cola</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>caneta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,29 +512,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lapis</t>
+          <t>varistor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>item de escola</t>
+          <t>componente eletrônico</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cola</t>
+          <t>lapis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -548,11 +548,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lapis</t>
+          <t>cola</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -560,17 +560,17 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>caneta</t>
+          <t>lapis</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -578,53 +578,53 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>varistor</t>
+          <t>caneta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>componente eletrônico</t>
+          <t>item de escola</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.35</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lapis</t>
+          <t>varistor</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>item de escola</t>
+          <t>componente eletrônico</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cola</t>
+          <t>lapis</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -638,11 +638,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lapis</t>
+          <t>cola</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -650,17 +650,17 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>caneta</t>
+          <t>lapis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -668,53 +668,53 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>varistor</t>
+          <t>caneta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>componente eletrônico</t>
+          <t>item de escola</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.35</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lapis</t>
+          <t>varistor</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>item de escola</t>
+          <t>componente eletrônico</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cola</t>
+          <t>lapis</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -728,11 +728,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lapis</t>
+          <t>cola</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -740,24 +740,42 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>caneta</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>80</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>item de escola</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>3.9</v>
       </c>
     </row>

--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,6 +779,186 @@
         <v>3.9</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>varistor</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>componente eletrônico</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>cola</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>50</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>caneta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>80</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>varistor</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>componente eletrônico</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>cola</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>caneta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>80</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>item de escola</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,6 +728,321 @@
         <v>5.4</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>40</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>40</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>40</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>40</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>40</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>50</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ouro</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Minério</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Diamante</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Minério</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,27 @@
         <v>5.4</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,48 @@
         <v>5.4</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>40</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>40</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,6 +1106,174 @@
         <v>5.4</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>40</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>40</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>40</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>40</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabelaExcel.xlsx
+++ b/tabelaExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,6 +1274,279 @@
         <v>5.4</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>40</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>40</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>40</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>40</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>40</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>40</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>40</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>40</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>40</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>40</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
